--- a/data/trans_dic/P25C$smedicoempresa_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25C$smedicoempresa_2023-Edad-trans_dic.xlsx
@@ -726,10 +726,10 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.02367694427732694</v>
+        <v>0.02159076328591424</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.008702863510677105</v>
+        <v>0.009878727789039235</v>
       </c>
     </row>
     <row r="16">
@@ -744,13 +744,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.01034460690507579</v>
+        <v>0.01034460690507578</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.006583091496258629</v>
+        <v>0.00658309149625863</v>
       </c>
     </row>
     <row r="17">
@@ -776,11 +776,11 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03351399970547707</v>
+        <v>0.03646287576691296</v>
       </c>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="n">
-        <v>0.02340375404410901</v>
+        <v>0.02231037411000832</v>
       </c>
     </row>
     <row r="19">
@@ -870,11 +870,11 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02432008897036033</v>
+        <v>0.022251881652686</v>
       </c>
       <c r="D24" s="5" t="inlineStr"/>
       <c r="E24" s="5" t="n">
-        <v>0.02330190847155123</v>
+        <v>0.01921433876310993</v>
       </c>
     </row>
     <row r="25">
@@ -906,13 +906,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.0008712579064322233</v>
+        <v>0.0008634239635678775</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.0005606026291606271</v>
+        <v>0.0006062392325595361</v>
       </c>
     </row>
     <row r="27">
@@ -923,13 +923,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01000150160717998</v>
+        <v>0.01042796307259804</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.004335942564322261</v>
+        <v>0.005370147835688709</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.006936989383118132</v>
+        <v>0.006819195980587522</v>
       </c>
     </row>
     <row r="28">
@@ -1270,10 +1270,10 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>2190</v>
+        <v>1997</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1792</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="20">
@@ -1337,11 +1337,11 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>5533</v>
+        <v>6019</v>
       </c>
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="n">
-        <v>6071</v>
+        <v>5787</v>
       </c>
     </row>
     <row r="24">
@@ -1465,11 +1465,11 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>3129</v>
+        <v>2863</v>
       </c>
       <c r="D31" s="6" t="inlineStr"/>
       <c r="E31" s="6" t="n">
-        <v>3456</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="32">
@@ -1518,13 +1518,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="D34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>575</v>
+        <v>622</v>
       </c>
     </row>
     <row r="35">
@@ -1535,13 +1535,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>6603</v>
+        <v>6885</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1586</v>
+        <v>1965</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>7118</v>
+        <v>6997</v>
       </c>
     </row>
     <row r="36">
